--- a/data/trans_orig/P36B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B02-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12475</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6985</v>
+        <v>6657</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21653</v>
+        <v>21209</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01797544037968446</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01006511685060573</v>
+        <v>0.009592080061825551</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03119923642535381</v>
+        <v>0.03055996665211035</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -765,19 +765,19 @@
         <v>14934</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8807</v>
+        <v>8881</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23399</v>
+        <v>24239</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0216952305399522</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01279378199496312</v>
+        <v>0.01290223623253447</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0339932593074059</v>
+        <v>0.03521282119910012</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -786,19 +786,19 @@
         <v>27409</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18342</v>
+        <v>17522</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38653</v>
+        <v>37987</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0198277187591874</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01326827459983517</v>
+        <v>0.01267511410736841</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02796180205331592</v>
+        <v>0.02747965063185115</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>11707</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6114</v>
+        <v>5830</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20508</v>
+        <v>20025</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01686838378959554</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008809913616380732</v>
+        <v>0.008400802317240027</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02954956425338244</v>
+        <v>0.02885434596616566</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -836,19 +836,19 @@
         <v>6408</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2735</v>
+        <v>2749</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12650</v>
+        <v>12854</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009309516222091316</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003973562576048269</v>
+        <v>0.003993941040270473</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01837705863048012</v>
+        <v>0.01867363177582896</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -857,19 +857,19 @@
         <v>18115</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11201</v>
+        <v>11426</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28305</v>
+        <v>28362</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01310442766154172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008102683367997261</v>
+        <v>0.008265911021559061</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02047609291641264</v>
+        <v>0.02051720338151715</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>10587</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5663</v>
+        <v>4978</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20127</v>
+        <v>18341</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0152553827982425</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0081598201837007</v>
+        <v>0.007172623580338851</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02900134739165654</v>
+        <v>0.02642791109897213</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>10211</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5446</v>
+        <v>4880</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17581</v>
+        <v>17359</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01483440731351617</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007911265558228516</v>
+        <v>0.007089904502479239</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02554062655851738</v>
+        <v>0.02521878794830366</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -928,19 +928,19 @@
         <v>20799</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13807</v>
+        <v>13168</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31379</v>
+        <v>31757</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01504575705187964</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00998807261812581</v>
+        <v>0.009526028909112408</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02269960710126969</v>
+        <v>0.02297318493991011</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>20182</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12884</v>
+        <v>12865</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30852</v>
+        <v>31054</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02907963862731423</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0185649755810176</v>
+        <v>0.01853656722526323</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04445388541512382</v>
+        <v>0.04474535417446838</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -978,19 +978,19 @@
         <v>14231</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8012</v>
+        <v>7677</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23584</v>
+        <v>23104</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02067412734805791</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01164005402315211</v>
+        <v>0.01115336068820188</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03426188582980597</v>
+        <v>0.03356373010353674</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -999,19 +999,19 @@
         <v>34413</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24322</v>
+        <v>24839</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47431</v>
+        <v>46276</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02489409424431764</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01759479248145906</v>
+        <v>0.01796832708719315</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03431117914311398</v>
+        <v>0.03347619960542973</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>639061</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>623449</v>
+        <v>624037</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>652070</v>
+        <v>650894</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9208211544051633</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8983254386563301</v>
+        <v>0.8991725021767817</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9395661257968511</v>
+        <v>0.937871826291591</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>649</v>
@@ -1049,19 +1049,19 @@
         <v>642567</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>628854</v>
+        <v>629023</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>653660</v>
+        <v>654756</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9334867185763824</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9135656732615173</v>
+        <v>0.9138111878011362</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9496030278422104</v>
+        <v>0.9511944114010052</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1277</v>
@@ -1070,19 +1070,19 @@
         <v>1281627</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1261186</v>
+        <v>1260435</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1300311</v>
+        <v>1300508</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9271280022830736</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9123409854953292</v>
+        <v>0.9117975676425547</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9406437996426474</v>
+        <v>0.9407860240194088</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>28505</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18476</v>
+        <v>18921</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39900</v>
+        <v>40284</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02963691583397195</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01920981050619668</v>
+        <v>0.01967227934641345</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04148484796334504</v>
+        <v>0.04188351081378344</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -1195,19 +1195,19 @@
         <v>33660</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22916</v>
+        <v>23553</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47361</v>
+        <v>46314</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03475904604609126</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02366430540737283</v>
+        <v>0.02432177531619248</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04890700862315225</v>
+        <v>0.04782542774149062</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1216,19 +1216,19 @@
         <v>62165</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47808</v>
+        <v>47486</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80401</v>
+        <v>79843</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03220672889275202</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0247686430090435</v>
+        <v>0.02460185005027387</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04165427760428811</v>
+        <v>0.04136516169185345</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>10164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5103</v>
+        <v>5224</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18929</v>
+        <v>18174</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01056760781869545</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005305918995125136</v>
+        <v>0.005431786961649323</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0196811845744276</v>
+        <v>0.01889543812398668</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1266,19 +1266,19 @@
         <v>4946</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1623</v>
+        <v>1069</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13174</v>
+        <v>11911</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005107451381047597</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001675706589914432</v>
+        <v>0.001103776872426984</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01360373261907932</v>
+        <v>0.01229934919387845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1287,19 +1287,19 @@
         <v>15110</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8098</v>
+        <v>8475</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24622</v>
+        <v>25257</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007828204340968587</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004195529611504148</v>
+        <v>0.004390877576338336</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01275614797257049</v>
+        <v>0.01308504277340379</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>38433</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27472</v>
+        <v>26012</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53735</v>
+        <v>52217</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03995899798488944</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02856305133785619</v>
+        <v>0.02704470741395752</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05586899933626251</v>
+        <v>0.05429130541592608</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -1337,19 +1337,19 @@
         <v>26329</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17139</v>
+        <v>17604</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38038</v>
+        <v>38697</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02718806645832861</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01769838611591822</v>
+        <v>0.01817837044420214</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03927950406044867</v>
+        <v>0.03995957449199974</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>59</v>
@@ -1358,19 +1358,19 @@
         <v>64761</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>49315</v>
+        <v>51160</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>83205</v>
+        <v>82793</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03355172108043077</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02554904533254514</v>
+        <v>0.02650508002773276</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04310717616584921</v>
+        <v>0.04289359915642156</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>36774</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25258</v>
+        <v>25715</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50648</v>
+        <v>49492</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03823425433045598</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02626136312276945</v>
+        <v>0.02673662322322834</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05265938685037372</v>
+        <v>0.0514579199260066</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1408,19 +1408,19 @@
         <v>34738</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24661</v>
+        <v>23853</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49061</v>
+        <v>47120</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03587137780833002</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02546594363124137</v>
+        <v>0.02463190257562277</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05066177479085104</v>
+        <v>0.04865746316271312</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -1429,19 +1429,19 @@
         <v>71511</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55800</v>
+        <v>55448</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89613</v>
+        <v>89711</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03704878057415104</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02890911495988537</v>
+        <v>0.0287268451844577</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04642693445226341</v>
+        <v>0.04647756276210085</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>847925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>825219</v>
+        <v>825504</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>867561</v>
+        <v>868226</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8816022240319872</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8579941303471006</v>
+        <v>0.858290275964403</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9020179547458236</v>
+        <v>0.9027097593286484</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>816</v>
@@ -1479,19 +1479,19 @@
         <v>868720</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>847376</v>
+        <v>847314</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>887198</v>
+        <v>888073</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8970740583062026</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8750330984744569</v>
+        <v>0.8749691448919134</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9161549086232222</v>
+        <v>0.917058421903709</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1605</v>
@@ -1500,19 +1500,19 @@
         <v>1716645</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1690037</v>
+        <v>1688065</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1745082</v>
+        <v>1742028</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8893645651116976</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8755790258668845</v>
+        <v>0.8745575031494315</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9040969128295114</v>
+        <v>0.9025147785066464</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>19708</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11829</v>
+        <v>12096</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31092</v>
+        <v>30311</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02904535373975025</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01743377954575336</v>
+        <v>0.01782754805961284</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04582387752284942</v>
+        <v>0.04467287094962618</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1625,19 +1625,19 @@
         <v>12144</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6463</v>
+        <v>6521</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20247</v>
+        <v>20099</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01778780392448888</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009467060897563061</v>
+        <v>0.009551429523515243</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02965707759743111</v>
+        <v>0.0294398002319011</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -1646,19 +1646,19 @@
         <v>31851</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21884</v>
+        <v>22190</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46953</v>
+        <v>46073</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02339921331494373</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01607683642428503</v>
+        <v>0.01630154718902597</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03449336893646295</v>
+        <v>0.03384660940553089</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>5464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1847</v>
+        <v>1944</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13092</v>
+        <v>11938</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.008053246198630881</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002722077712477652</v>
+        <v>0.002864581893066432</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01929573314349595</v>
+        <v>0.01759415559442804</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1696,19 +1696,19 @@
         <v>6722</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2876</v>
+        <v>2952</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13980</v>
+        <v>13702</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.009845559974778042</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004212894583888585</v>
+        <v>0.004323483821339861</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02047756757312645</v>
+        <v>0.02006973379217375</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -1717,19 +1717,19 @@
         <v>12186</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6557</v>
+        <v>6516</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21217</v>
+        <v>21079</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008952167849568043</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004816694501588212</v>
+        <v>0.004787024637374055</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01558643850581598</v>
+        <v>0.01548503496014693</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>25876</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17023</v>
+        <v>17242</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37368</v>
+        <v>38678</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03813718449141122</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02508893198262327</v>
+        <v>0.02541099188443034</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05507392759847222</v>
+        <v>0.05700458742029779</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>25</v>
@@ -1767,19 +1767,19 @@
         <v>22820</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15226</v>
+        <v>14762</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33860</v>
+        <v>32445</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03342637793300802</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02230294609497362</v>
+        <v>0.0216225145766796</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04959622202992726</v>
+        <v>0.04752331694689431</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>50</v>
@@ -1788,19 +1788,19 @@
         <v>48697</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>36378</v>
+        <v>37181</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>63959</v>
+        <v>63675</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03577451448067883</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02672434562528805</v>
+        <v>0.02731486254273273</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04698678894572269</v>
+        <v>0.04677793551812317</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>46451</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34130</v>
+        <v>34110</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60756</v>
+        <v>62212</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06845967685549045</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05030109904569156</v>
+        <v>0.05027230918289895</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08954326886204095</v>
+        <v>0.0916895522387403</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -1838,19 +1838,19 @@
         <v>38754</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28377</v>
+        <v>27526</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52551</v>
+        <v>52101</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05676465717966712</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04156503073791578</v>
+        <v>0.0403182008381551</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07697370850537785</v>
+        <v>0.07631461553419666</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -1859,19 +1859,19 @@
         <v>85204</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69703</v>
+        <v>68579</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>103857</v>
+        <v>103208</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06259412667413061</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05120627052061006</v>
+        <v>0.0503804915619239</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07629746162292293</v>
+        <v>0.07582058402117478</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>581010</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>560593</v>
+        <v>562104</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>597245</v>
+        <v>599739</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8563045387147172</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8262125620302512</v>
+        <v>0.8284399772531691</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.880230915611075</v>
+        <v>0.8839071843825729</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>609</v>
@@ -1909,19 +1909,19 @@
         <v>602269</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>583453</v>
+        <v>584168</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>615666</v>
+        <v>617225</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8821756009880579</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.854613761771484</v>
+        <v>0.8556622895948037</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9017979660077092</v>
+        <v>0.9040823071576339</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1158</v>
@@ -1930,19 +1930,19 @@
         <v>1183280</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1156100</v>
+        <v>1159572</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1206790</v>
+        <v>1207287</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8692799776806788</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8493127513050983</v>
+        <v>0.8518635582776243</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8865512949084872</v>
+        <v>0.8869170599322262</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>21629</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14125</v>
+        <v>13708</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33614</v>
+        <v>34033</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02297707729542769</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01500497660547187</v>
+        <v>0.01456243539729164</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03570902726742255</v>
+        <v>0.0361539186095535</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2055,19 +2055,19 @@
         <v>19628</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12395</v>
+        <v>12188</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30245</v>
+        <v>30613</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01889867777451978</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01193423675023528</v>
+        <v>0.01173475127273888</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02912104412595522</v>
+        <v>0.02947492495430662</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -2076,19 +2076,19 @@
         <v>41258</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29688</v>
+        <v>29978</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56516</v>
+        <v>55873</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02083769495976261</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01499445501130864</v>
+        <v>0.01514054066256547</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02854432610491687</v>
+        <v>0.0282194193879245</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>12015</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6384</v>
+        <v>6821</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20167</v>
+        <v>20012</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01276395137009486</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006781698379233477</v>
+        <v>0.007245654108290474</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0214241560950346</v>
+        <v>0.02125932958542975</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -2126,19 +2126,19 @@
         <v>10453</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5245</v>
+        <v>4879</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19054</v>
+        <v>19263</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01006442180423175</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005049754925552101</v>
+        <v>0.004697269076985011</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01834521730999807</v>
+        <v>0.01854723121350427</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>22</v>
@@ -2147,19 +2147,19 @@
         <v>22468</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14300</v>
+        <v>13737</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>34069</v>
+        <v>33781</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01134787483364816</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007222438884623027</v>
+        <v>0.006937996371932612</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0172070356275784</v>
+        <v>0.01706146710433687</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>36556</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26772</v>
+        <v>26103</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>48825</v>
+        <v>49400</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03883442661437801</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0284398674272613</v>
+        <v>0.02772994130956522</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05186722081862381</v>
+        <v>0.05247832251084488</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>23</v>
@@ -2197,19 +2197,19 @@
         <v>23873</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15636</v>
+        <v>15177</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>35008</v>
+        <v>35414</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02298528144618305</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01505430410014643</v>
+        <v>0.01461318911127974</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03370690611864279</v>
+        <v>0.03409710494622432</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>62</v>
@@ -2218,19 +2218,19 @@
         <v>60429</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>46201</v>
+        <v>46154</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>75525</v>
+        <v>77368</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03052053263846867</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.023334355719959</v>
+        <v>0.02331088823296384</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03814498050346204</v>
+        <v>0.03907589908738181</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>83340</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>69125</v>
+        <v>67755</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>101443</v>
+        <v>100895</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08853344268650269</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07343220696614339</v>
+        <v>0.07197693857933599</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1077647720371293</v>
+        <v>0.107182131321399</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -2268,19 +2268,19 @@
         <v>77805</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>62005</v>
+        <v>62598</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>97326</v>
+        <v>96673</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07491207945349398</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05969945486265857</v>
+        <v>0.06027096037111258</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09370745689575427</v>
+        <v>0.09307900752468949</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>167</v>
@@ -2289,19 +2289,19 @@
         <v>161145</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>140569</v>
+        <v>138874</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>186636</v>
+        <v>185642</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08138816333390771</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07099620380468026</v>
+        <v>0.07013989380399357</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09426306944020339</v>
+        <v>0.09376107909910725</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>787799</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>762941</v>
+        <v>765926</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>808872</v>
+        <v>807957</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8368911020335967</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8104838110264526</v>
+        <v>0.813655499029394</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8592767595671613</v>
+        <v>0.8583056017072074</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>871</v>
@@ -2339,19 +2339,19 @@
         <v>906853</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>883792</v>
+        <v>883624</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>926419</v>
+        <v>927469</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8731395395215714</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8509355963830454</v>
+        <v>0.8507735311955639</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8919775419856903</v>
+        <v>0.8929884513536109</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1699</v>
@@ -2360,19 +2360,19 @@
         <v>1694652</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1660081</v>
+        <v>1665120</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1723672</v>
+        <v>1727074</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8559057342342129</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.838444851775763</v>
+        <v>0.8409900612801007</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8705625928730553</v>
+        <v>0.8722805452145713</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>82317</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>63575</v>
+        <v>64115</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>101349</v>
+        <v>100419</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02512980794003197</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01940827416870598</v>
+        <v>0.01957329202710274</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03093989416371209</v>
+        <v>0.03065614851586061</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>77</v>
@@ -2485,19 +2485,19 @@
         <v>80367</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>65126</v>
+        <v>63306</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>99136</v>
+        <v>99950</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02379073281698098</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01927909472594457</v>
+        <v>0.01874035489263704</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02934702351044067</v>
+        <v>0.02958801573419693</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>156</v>
@@ -2506,19 +2506,19 @@
         <v>162683</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>136162</v>
+        <v>139577</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>188420</v>
+        <v>189981</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02444996594510032</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02046404028613749</v>
+        <v>0.02097719525401683</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02831799255469495</v>
+        <v>0.02855253288176125</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>39350</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>28165</v>
+        <v>28395</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>53216</v>
+        <v>53596</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01201290508078591</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008598385930108815</v>
+        <v>0.008668585972865883</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01624577870949412</v>
+        <v>0.01636203417919943</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>28</v>
@@ -2556,19 +2556,19 @@
         <v>28529</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18627</v>
+        <v>18363</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>40701</v>
+        <v>40335</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.008445342415733657</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005514052916948042</v>
+        <v>0.00543589467109797</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01204866986131868</v>
+        <v>0.01194030096785694</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>67</v>
@@ -2577,19 +2577,19 @@
         <v>67879</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>51651</v>
+        <v>52585</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>85788</v>
+        <v>84516</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01020167068661185</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00776278107837657</v>
+        <v>0.007903136824451172</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01289324994380749</v>
+        <v>0.01270209625146069</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>111453</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>92620</v>
+        <v>92824</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>135980</v>
+        <v>134466</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03402452326962435</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02827518062303653</v>
+        <v>0.02833735260795713</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04151238206583264</v>
+        <v>0.04105007241487022</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>83</v>
@@ -2627,19 +2627,19 @@
         <v>83233</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>67056</v>
+        <v>64470</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>101827</v>
+        <v>103121</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02463933830842292</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01985039355534119</v>
+        <v>0.01908474460165436</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03014349909456727</v>
+        <v>0.03052670949415415</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>192</v>
@@ -2648,19 +2648,19 @@
         <v>194686</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>168317</v>
+        <v>170149</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>225795</v>
+        <v>223123</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0292597100362276</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02529664442745211</v>
+        <v>0.0255719856514459</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03393504813170196</v>
+        <v>0.0335335588431827</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>186746</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>161226</v>
+        <v>162299</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>213995</v>
+        <v>214776</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05701014319803902</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04921932207808857</v>
+        <v>0.04954699178786276</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06532887124462218</v>
+        <v>0.06556728258556044</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>163</v>
@@ -2698,19 +2698,19 @@
         <v>165527</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>143001</v>
+        <v>144156</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>191534</v>
+        <v>193457</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04900052808235682</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04233210634220115</v>
+        <v>0.04267400371114267</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05669939987759176</v>
+        <v>0.05726863079445422</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>355</v>
@@ -2719,19 +2719,19 @@
         <v>352273</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>316440</v>
+        <v>320345</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>387668</v>
+        <v>387981</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05294370015451997</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04755835264434948</v>
+        <v>0.04814521176298854</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05826329876062017</v>
+        <v>0.05831038185020598</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>2855795</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2813618</v>
+        <v>2815930</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2894844</v>
+        <v>2892577</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8718226205115187</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8589467885152595</v>
+        <v>0.8596525875134103</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8837435275365558</v>
+        <v>0.8830513442112169</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2945</v>
@@ -2769,19 +2769,19 @@
         <v>3020409</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2985300</v>
+        <v>2983572</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3054923</v>
+        <v>3056490</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8941240583765057</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.883730790011876</v>
+        <v>0.8832192398555407</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9043409724514192</v>
+        <v>0.9048051122954938</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5739</v>
@@ -2790,19 +2790,19 @@
         <v>5876205</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5823223</v>
+        <v>5823759</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5928294</v>
+        <v>5926893</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8831449531775403</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8751822048541295</v>
+        <v>0.875262799258666</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8909736138348112</v>
+        <v>0.8907630446948639</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>18915</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11600</v>
+        <v>11603</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32294</v>
+        <v>31697</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0268882963493548</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0164892258120655</v>
+        <v>0.01649396895063572</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04590674953519621</v>
+        <v>0.04505796916825127</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -3155,19 +3155,19 @@
         <v>16546</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9286</v>
+        <v>9558</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26489</v>
+        <v>26627</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02373653883407003</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01332202598145063</v>
+        <v>0.0137118591759288</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03800135771293912</v>
+        <v>0.0381990277030762</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -3176,19 +3176,19 @@
         <v>35461</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24444</v>
+        <v>24451</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49382</v>
+        <v>50550</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02531964029529897</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01745333165185819</v>
+        <v>0.0174586387140176</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03525945802254162</v>
+        <v>0.03609388254919937</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>7259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3131</v>
+        <v>3078</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14089</v>
+        <v>13999</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01031940238977377</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004450416858086345</v>
+        <v>0.004375239403383027</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02002854681818507</v>
+        <v>0.01989973396069225</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -3226,19 +3226,19 @@
         <v>2993</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7960</v>
+        <v>8647</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004293810473329007</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001349397732985708</v>
+        <v>0.001360741341482194</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01141934578272657</v>
+        <v>0.01240453925911883</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -3247,19 +3247,19 @@
         <v>10252</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5087</v>
+        <v>5194</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18097</v>
+        <v>18685</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00732041493811795</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003632271650849947</v>
+        <v>0.003708579845590972</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01292149652250473</v>
+        <v>0.01334130464000963</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>9016</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4283</v>
+        <v>4331</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16495</v>
+        <v>17372</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01281629752050616</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006087854670537974</v>
+        <v>0.006157323129116782</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02344795715850262</v>
+        <v>0.02469474495725843</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -3297,19 +3297,19 @@
         <v>10884</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5064</v>
+        <v>5193</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19137</v>
+        <v>18528</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01561467956523568</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007264423419898051</v>
+        <v>0.00744952277458914</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02745363751366632</v>
+        <v>0.02658008330736534</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>19</v>
@@ -3318,19 +3318,19 @@
         <v>19900</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11910</v>
+        <v>11929</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30565</v>
+        <v>30763</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01420907564976826</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008503990786293648</v>
+        <v>0.00851747941734092</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02182429896279864</v>
+        <v>0.02196560564532887</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>12384</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6889</v>
+        <v>6791</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20809</v>
+        <v>20895</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01760478136474025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009792191567929147</v>
+        <v>0.009653583968118299</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02958101682439291</v>
+        <v>0.02970247517311509</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -3368,19 +3368,19 @@
         <v>16328</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9593</v>
+        <v>9259</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25904</v>
+        <v>26397</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02342431439405142</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01376211142644797</v>
+        <v>0.01328254237335903</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03716235077366436</v>
+        <v>0.03786924278425909</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -3389,19 +3389,19 @@
         <v>28712</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19763</v>
+        <v>19644</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40386</v>
+        <v>41398</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0205012115862708</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01411103628996896</v>
+        <v>0.01402625520922682</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02883674451890231</v>
+        <v>0.0295593466346347</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>655894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>639622</v>
+        <v>639750</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>667556</v>
+        <v>668597</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.932371222375625</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9092391808292032</v>
+        <v>0.9094212938238188</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9489486735282814</v>
+        <v>0.9504284295705243</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>607</v>
@@ -3439,19 +3439,19 @@
         <v>650299</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>633838</v>
+        <v>635027</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>662339</v>
+        <v>662699</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9329306567333139</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9093147714827773</v>
+        <v>0.9110213250175547</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9502030068601889</v>
+        <v>0.9507201305703957</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1235</v>
@@ -3460,19 +3460,19 @@
         <v>1306194</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1287287</v>
+        <v>1285900</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1325002</v>
+        <v>1325124</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9326496575305441</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.919149805983262</v>
+        <v>0.9181592848150738</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9460792742123696</v>
+        <v>0.9461665380338351</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>24289</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14730</v>
+        <v>15322</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35493</v>
+        <v>36560</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02386057252812812</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01446986803851897</v>
+        <v>0.01505148955070891</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03486691302154513</v>
+        <v>0.03591570684970039</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -3585,19 +3585,19 @@
         <v>26741</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17853</v>
+        <v>17939</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38972</v>
+        <v>37952</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02593155152338375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.017313092801438</v>
+        <v>0.01739594936311836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0377926566837419</v>
+        <v>0.03680360788996854</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -3606,19 +3606,19 @@
         <v>51030</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37653</v>
+        <v>39073</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68398</v>
+        <v>67887</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02490276184933244</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01837476262253876</v>
+        <v>0.01906801370158528</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03337877397952943</v>
+        <v>0.03312923154147761</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>4095</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1044</v>
+        <v>991</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10124</v>
+        <v>10050</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00402298223054885</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001025261019030136</v>
+        <v>0.000973635755402391</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.009945442784969834</v>
+        <v>0.009872920426507586</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -3656,19 +3656,19 @@
         <v>6568</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3182</v>
+        <v>2268</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14372</v>
+        <v>13366</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006369622880783026</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003086088204434881</v>
+        <v>0.002199586025091854</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01393666461313523</v>
+        <v>0.01296123415729035</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -3677,19 +3677,19 @@
         <v>10664</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5146</v>
+        <v>5269</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19501</v>
+        <v>19147</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005203894172186459</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002511049533982552</v>
+        <v>0.002571132571179476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009516806042614113</v>
+        <v>0.009343971236282965</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>25865</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16515</v>
+        <v>16565</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37171</v>
+        <v>38553</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02540920045995256</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01622368293899023</v>
+        <v>0.01627305301456039</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03651523599902391</v>
+        <v>0.03787369243881981</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>20</v>
@@ -3727,19 +3727,19 @@
         <v>21978</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13501</v>
+        <v>13734</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33187</v>
+        <v>34334</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02131316566055621</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01309212562348028</v>
+        <v>0.01331832278817179</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03218263493583981</v>
+        <v>0.03329483564535211</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -3748,19 +3748,19 @@
         <v>47843</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35814</v>
+        <v>35667</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>65278</v>
+        <v>64179</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02334793197920428</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01747742123667691</v>
+        <v>0.01740564563737167</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03185619630684559</v>
+        <v>0.03131981763950989</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>38972</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27760</v>
+        <v>27010</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53641</v>
+        <v>54016</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03828473306337235</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02727104611077761</v>
+        <v>0.02653425936137445</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05269506124777587</v>
+        <v>0.05306387821521621</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -3798,19 +3798,19 @@
         <v>25466</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16166</v>
+        <v>16770</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37460</v>
+        <v>37395</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02469529224167916</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01567727366971327</v>
+        <v>0.01626254488404206</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03632622363426879</v>
+        <v>0.03626289926716553</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>57</v>
@@ -3819,19 +3819,19 @@
         <v>64438</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48744</v>
+        <v>50345</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>82390</v>
+        <v>84524</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03144604945627058</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02378721481700218</v>
+        <v>0.02456892372742056</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04020699348024924</v>
+        <v>0.04124841518514437</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>924726</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>905195</v>
+        <v>904791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>943397</v>
+        <v>944930</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9084225117179981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8892363504009091</v>
+        <v>0.8888392778409223</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9267646326885403</v>
+        <v>0.928269997752816</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>865</v>
@@ -3869,19 +3869,19 @@
         <v>950453</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>931097</v>
+        <v>930572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>967320</v>
+        <v>966363</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9216903676935979</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9029205655164282</v>
+        <v>0.9024109671597161</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9380474236915192</v>
+        <v>0.9371188876356633</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1719</v>
@@ -3890,19 +3890,19 @@
         <v>1875179</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1848309</v>
+        <v>1848239</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1903423</v>
+        <v>1902510</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9150993625430063</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9019866121245314</v>
+        <v>0.9019526743739666</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9288828403799734</v>
+        <v>0.9284372380333219</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>27674</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18182</v>
+        <v>18484</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40898</v>
+        <v>39983</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03652730218726204</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02399909887781905</v>
+        <v>0.0243968993482464</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05398173949262253</v>
+        <v>0.05277422167669704</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -4015,19 +4015,19 @@
         <v>27407</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18588</v>
+        <v>17747</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41055</v>
+        <v>40457</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03540184362786097</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02401081624745916</v>
+        <v>0.02292432278273607</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05303172660060963</v>
+        <v>0.05225904210125518</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -4036,19 +4036,19 @@
         <v>55080</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42397</v>
+        <v>40216</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>73565</v>
+        <v>71304</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03595849929339503</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02767808341922261</v>
+        <v>0.02625425680499084</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04802574486407769</v>
+        <v>0.04654972718677636</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>9133</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4562</v>
+        <v>4010</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16375</v>
+        <v>16891</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01205496087178946</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006020979303135213</v>
+        <v>0.005292654261517901</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02161319428614085</v>
+        <v>0.02229412604618486</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -4086,19 +4086,19 @@
         <v>10171</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4845</v>
+        <v>4920</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18716</v>
+        <v>20002</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01313779464580014</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006258740629517849</v>
+        <v>0.006355251894020055</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0241762145447942</v>
+        <v>0.02583720445744728</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -4107,19 +4107,19 @@
         <v>19304</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11348</v>
+        <v>11790</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30941</v>
+        <v>30562</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01260222134538876</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007408165574553038</v>
+        <v>0.007696812071611442</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02019939438584265</v>
+        <v>0.01995205299364687</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>41469</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30106</v>
+        <v>29608</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56596</v>
+        <v>56214</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0547351885131738</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03973697911399404</v>
+        <v>0.03908018270518761</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07470194212868168</v>
+        <v>0.07419746710422465</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -4157,19 +4157,19 @@
         <v>17892</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10709</v>
+        <v>10168</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28554</v>
+        <v>28340</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02311209804247187</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01383328677584428</v>
+        <v>0.01313428406794197</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03688387659495714</v>
+        <v>0.03660780149963756</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>55</v>
@@ -4178,19 +4178,19 @@
         <v>59361</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>45950</v>
+        <v>43802</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>76334</v>
+        <v>77530</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03875298710513097</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02999785197349907</v>
+        <v>0.02859582396704299</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04983348662747748</v>
+        <v>0.05061423201611172</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>33265</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23274</v>
+        <v>23943</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45292</v>
+        <v>47850</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04390726634103025</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03072027628534895</v>
+        <v>0.03160278960236552</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05978223750765026</v>
+        <v>0.06315751378850451</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -4228,19 +4228,19 @@
         <v>32650</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21425</v>
+        <v>22997</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46065</v>
+        <v>47501</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04217526721332795</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02767549343994884</v>
+        <v>0.02970584945242612</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05950286571483853</v>
+        <v>0.06135860408161421</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>60</v>
@@ -4249,19 +4249,19 @@
         <v>65915</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51006</v>
+        <v>51037</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83258</v>
+        <v>83564</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04303191992531106</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03329879815587709</v>
+        <v>0.03331862667731235</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05435403281868754</v>
+        <v>0.05455335416416244</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>646082</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>623778</v>
+        <v>622295</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>664007</v>
+        <v>664218</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8527752820867445</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8233361884717457</v>
+        <v>0.8213781434867909</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8764352329322843</v>
+        <v>0.8767126142794687</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>624</v>
@@ -4299,19 +4299,19 @@
         <v>686036</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>665111</v>
+        <v>664123</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>702347</v>
+        <v>701752</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.886172996470539</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8591434562634719</v>
+        <v>0.8578673174192021</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9072416663439327</v>
+        <v>0.9064735748402232</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1209</v>
@@ -4320,19 +4320,19 @@
         <v>1332118</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1303423</v>
+        <v>1301272</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1360136</v>
+        <v>1359373</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8696543723307741</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8509209610426142</v>
+        <v>0.849516974546224</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8879454107527743</v>
+        <v>0.887446988558223</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>25150</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16456</v>
+        <v>16758</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36495</v>
+        <v>37335</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02656207470519913</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01737964866960503</v>
+        <v>0.01769927057711628</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03854472445870592</v>
+        <v>0.03943147050746618</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -4445,19 +4445,19 @@
         <v>36174</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25462</v>
+        <v>25688</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49836</v>
+        <v>50671</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03445197517504135</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02425029023478627</v>
+        <v>0.02446559645537096</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04746375548154993</v>
+        <v>0.04825887494823553</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -4466,19 +4466,19 @@
         <v>61323</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46971</v>
+        <v>46379</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>78515</v>
+        <v>78690</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03071080725920459</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02352307576057846</v>
+        <v>0.0232266809870285</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03932022420767864</v>
+        <v>0.03940784630561705</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>7956</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3047</v>
+        <v>2940</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17993</v>
+        <v>17218</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008402749435443103</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003218404213411648</v>
+        <v>0.00310540464442918</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01900378621602406</v>
+        <v>0.01818501596579179</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -4516,19 +4516,19 @@
         <v>8552</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3992</v>
+        <v>4168</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17588</v>
+        <v>17214</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008145027815196319</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003801993485283557</v>
+        <v>0.003969627020384629</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01675128711509825</v>
+        <v>0.0163946186556181</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -4537,19 +4537,19 @@
         <v>16508</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9010</v>
+        <v>8855</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28485</v>
+        <v>27990</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008267232126970612</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004512243848430725</v>
+        <v>0.004434711367246269</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01426550703524302</v>
+        <v>0.01401750676538015</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>28109</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18133</v>
+        <v>18993</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>41463</v>
+        <v>41509</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02968784532895505</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01915164397259262</v>
+        <v>0.0200599049706485</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04379109832234219</v>
+        <v>0.04384055290940723</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -4587,19 +4587,19 @@
         <v>21460</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13631</v>
+        <v>13333</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>34627</v>
+        <v>32528</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02043878919917554</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01298200893723358</v>
+        <v>0.01269830367235199</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03297876058552546</v>
+        <v>0.03098006234619612</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>46</v>
@@ -4608,19 +4608,19 @@
         <v>49569</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>35929</v>
+        <v>36860</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>65622</v>
+        <v>65426</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02482443033327674</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01799329955591915</v>
+        <v>0.0184597404613758</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03286377239434396</v>
+        <v>0.03276560448195025</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>29855</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19625</v>
+        <v>19912</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41936</v>
+        <v>42175</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03153165184692039</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02072758907949987</v>
+        <v>0.02103046716430929</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0442915961488653</v>
+        <v>0.04454335372331623</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -4658,19 +4658,19 @@
         <v>17005</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10016</v>
+        <v>9833</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26973</v>
+        <v>26022</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01619574126286585</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009539588469069788</v>
+        <v>0.009365072929176313</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02568910202680486</v>
+        <v>0.02478323073453751</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -4679,19 +4679,19 @@
         <v>46860</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34371</v>
+        <v>33721</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>61619</v>
+        <v>62432</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02346759682764886</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01721326052725375</v>
+        <v>0.01688738636719985</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03085878116950293</v>
+        <v>0.03126603657808724</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>855756</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>835033</v>
+        <v>835059</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>873833</v>
+        <v>873398</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9038156786834823</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8819281885992784</v>
+        <v>0.8819558152417979</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9229073542250904</v>
+        <v>0.9224478838097647</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>922</v>
@@ -4729,19 +4729,19 @@
         <v>966783</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>947863</v>
+        <v>948639</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>983061</v>
+        <v>983463</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9207684665477209</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.902749412550523</v>
+        <v>0.9034882084951416</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9362716904302758</v>
+        <v>0.9366548443051311</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1746</v>
@@ -4750,19 +4750,19 @@
         <v>1822538</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1797294</v>
+        <v>1798200</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1846833</v>
+        <v>1849654</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9127299334528992</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9000874791276294</v>
+        <v>0.9005411098199722</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.924896684963911</v>
+        <v>0.9263097009782872</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>96027</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>77895</v>
+        <v>76108</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>117611</v>
+        <v>119377</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02803013855185629</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02273727888621481</v>
+        <v>0.02221563594174968</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03433039268059948</v>
+        <v>0.0348458637621481</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>98</v>
@@ -4875,19 +4875,19 @@
         <v>106867</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>86075</v>
+        <v>87485</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>131578</v>
+        <v>128275</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03008303529609186</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02423028170293356</v>
+        <v>0.02462721671827743</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03703925904672429</v>
+        <v>0.0361096560132981</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>185</v>
@@ -4896,19 +4896,19 @@
         <v>202894</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>175779</v>
+        <v>177288</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>233913</v>
+        <v>234783</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02907519704140454</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02518961434372002</v>
+        <v>0.02540579279751143</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03352030401008624</v>
+        <v>0.03364494411488261</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>28444</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19433</v>
+        <v>18385</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41882</v>
+        <v>40667</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008302609735538171</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005672525391943028</v>
+        <v>0.005366462288778689</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01222528945926397</v>
+        <v>0.01187064507317561</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>26</v>
@@ -4946,19 +4946,19 @@
         <v>28284</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20019</v>
+        <v>19181</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41888</v>
+        <v>40742</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.00796201891862546</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005635372520364508</v>
+        <v>0.005399371634803881</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01179148126136056</v>
+        <v>0.01146885794917064</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>52</v>
@@ -4967,19 +4967,19 @@
         <v>56728</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>42646</v>
+        <v>43440</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>73481</v>
+        <v>74481</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008129226770381128</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006111225781719572</v>
+        <v>0.006225121697264657</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01053002415924896</v>
+        <v>0.01067331273459356</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>104459</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>85348</v>
+        <v>84794</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>126718</v>
+        <v>127492</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03049126455501228</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02491275146663686</v>
+        <v>0.02475115592537414</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0369884826007064</v>
+        <v>0.03721467833110916</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>66</v>
@@ -5017,19 +5017,19 @@
         <v>72215</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>55834</v>
+        <v>54441</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>90948</v>
+        <v>89173</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02032860248264214</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01571737427769939</v>
+        <v>0.01532521121861886</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02560195205305515</v>
+        <v>0.02510218882729642</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>163</v>
@@ -5038,19 +5038,19 @@
         <v>176674</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>151566</v>
+        <v>151920</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>206003</v>
+        <v>207141</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02531780597509953</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02171976072796913</v>
+        <v>0.02177049527503766</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02952074388920382</v>
+        <v>0.02968383448491319</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>114476</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>95753</v>
+        <v>95007</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>139595</v>
+        <v>137513</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03341532553875516</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02794998657849903</v>
+        <v>0.02773216752265222</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04074734864634239</v>
+        <v>0.04013978414361782</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>84</v>
@@ -5088,19 +5088,19 @@
         <v>91449</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>72792</v>
+        <v>74077</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>110203</v>
+        <v>113794</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.025743035959102</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0204910329226742</v>
+        <v>0.02085279697759309</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03102214140896251</v>
+        <v>0.03203311375605988</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>191</v>
@@ -5109,19 +5109,19 @@
         <v>205926</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>178020</v>
+        <v>178305</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>237766</v>
+        <v>240415</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02950962916995178</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02551063262810261</v>
+        <v>0.02555157550854655</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03407248096109122</v>
+        <v>0.034452029232393</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>3082459</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3045612</v>
+        <v>3042853</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3123596</v>
+        <v>3116490</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8997606616188381</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8890053424686314</v>
+        <v>0.8881998081945748</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9117685048564408</v>
+        <v>0.9096941949045452</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3018</v>
@@ -5159,19 +5159,19 @@
         <v>3253570</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3219039</v>
+        <v>3216623</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3285827</v>
+        <v>3284589</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9158833073435385</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9061627307486938</v>
+        <v>0.905482528475111</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9249637217587118</v>
+        <v>0.9246152541443374</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5909</v>
@@ -5180,19 +5180,19 @@
         <v>6336029</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6282965</v>
+        <v>6279940</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6383918</v>
+        <v>6382479</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.907968141043163</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9003639627690552</v>
+        <v>0.8999304614395032</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9148308270900903</v>
+        <v>0.9146245298920436</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>21033</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12960</v>
+        <v>13022</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31971</v>
+        <v>31998</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03121122971520209</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01923113412121932</v>
+        <v>0.01932257012604845</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04744106227808963</v>
+        <v>0.04748165794563924</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -5545,19 +5545,19 @@
         <v>12017</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5915</v>
+        <v>6393</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20219</v>
+        <v>21224</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01790904209426771</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00881543830046116</v>
+        <v>0.009528286085262336</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03013276537506897</v>
+        <v>0.03163097283943137</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -5566,19 +5566,19 @@
         <v>33050</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22737</v>
+        <v>21943</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47160</v>
+        <v>46391</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02457459534830632</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01690619343873059</v>
+        <v>0.01631611127258351</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03506602981296323</v>
+        <v>0.03449428367965659</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>9588</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4649</v>
+        <v>4717</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18077</v>
+        <v>17696</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01422721765722921</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006898423794812244</v>
+        <v>0.006998999736914735</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02682437214556521</v>
+        <v>0.02625830617045357</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -5616,19 +5616,19 @@
         <v>6593</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2734</v>
+        <v>2840</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12658</v>
+        <v>13330</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009826487129803642</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004075217790313534</v>
+        <v>0.004233287637261557</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01886417355033805</v>
+        <v>0.01986708852859901</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -5637,19 +5637,19 @@
         <v>16181</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9642</v>
+        <v>9441</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27187</v>
+        <v>26221</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01203163597622835</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007169178928546314</v>
+        <v>0.007019727546176905</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02021505628043143</v>
+        <v>0.01949710168248418</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>18368</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11238</v>
+        <v>11414</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29078</v>
+        <v>28706</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02725648713558686</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01667643324768615</v>
+        <v>0.01693753512688501</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04314874915125414</v>
+        <v>0.04259614587415102</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -5687,19 +5687,19 @@
         <v>11177</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5384</v>
+        <v>5815</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19142</v>
+        <v>19075</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0166579082151436</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008024161179591751</v>
+        <v>0.008666499135632444</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02852829131804642</v>
+        <v>0.02842811630727154</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -5708,19 +5708,19 @@
         <v>29546</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20115</v>
+        <v>20228</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>42180</v>
+        <v>42263</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02196871830326528</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01495653668081733</v>
+        <v>0.01504078928143004</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03136326932564325</v>
+        <v>0.03142491001055499</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>22918</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14579</v>
+        <v>14730</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34856</v>
+        <v>36277</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03400808749982152</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02163371716969971</v>
+        <v>0.02185716751807424</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05172196781967554</v>
+        <v>0.05383034089597712</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -5758,19 +5758,19 @@
         <v>25369</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16377</v>
+        <v>17163</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35645</v>
+        <v>36522</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03780798055422459</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02440708834770354</v>
+        <v>0.02557905628992701</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05312318525750868</v>
+        <v>0.05443019850867122</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -5779,19 +5779,19 @@
         <v>48287</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36972</v>
+        <v>35391</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63668</v>
+        <v>62841</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03590390355309175</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02749070660307059</v>
+        <v>0.02631543850195945</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04734062737355595</v>
+        <v>0.04672604630398049</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>602000</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>584122</v>
+        <v>583916</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>617882</v>
+        <v>617606</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8932969779921603</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8667686868198974</v>
+        <v>0.8664623101289066</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9168637762150212</v>
+        <v>0.9164548523983759</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>608</v>
@@ -5829,19 +5829,19 @@
         <v>615828</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>600544</v>
+        <v>599881</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>629931</v>
+        <v>628241</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9177985820065605</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8950199476541276</v>
+        <v>0.8940314902627571</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9388173315599175</v>
+        <v>0.9362982228793834</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1193</v>
@@ -5850,19 +5850,19 @@
         <v>1217828</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1195215</v>
+        <v>1194981</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1239467</v>
+        <v>1237999</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9055211468191083</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8887071327121212</v>
+        <v>0.8885329246225226</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.921610887439735</v>
+        <v>0.9205189131292638</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>41243</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30677</v>
+        <v>30038</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55827</v>
+        <v>55284</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04037661221456591</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03003196380202064</v>
+        <v>0.02940706800061059</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05465356014612403</v>
+        <v>0.05412289983118222</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -5975,19 +5975,19 @@
         <v>31280</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22027</v>
+        <v>21656</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44347</v>
+        <v>44587</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02999266606167053</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02112085387246966</v>
+        <v>0.0207644654354388</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04252253129315912</v>
+        <v>0.04275240915448061</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -5996,19 +5996,19 @@
         <v>72523</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56766</v>
+        <v>57382</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91194</v>
+        <v>90286</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0351306882586054</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02749775520003744</v>
+        <v>0.02779617560956652</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04417528876208654</v>
+        <v>0.04373536544528053</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>10464</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4825</v>
+        <v>5467</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18257</v>
+        <v>17386</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01024460183173628</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004723961108008581</v>
+        <v>0.005351680018946342</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01787371105790246</v>
+        <v>0.01702048036929479</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -6046,19 +6046,19 @@
         <v>4708</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11307</v>
+        <v>10468</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004513835237587109</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001761915963734738</v>
+        <v>0.001764810816622887</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01084178090160589</v>
+        <v>0.01003736038779018</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -6067,19 +6067,19 @@
         <v>15172</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8699</v>
+        <v>8656</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24165</v>
+        <v>23790</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007349443736768426</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004214093699198631</v>
+        <v>0.004192964398784533</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01170589959533727</v>
+        <v>0.0115239039738776</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>35466</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23080</v>
+        <v>24586</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50295</v>
+        <v>50403</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03472095768819262</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02259475946334433</v>
+        <v>0.02406908742942265</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04923859346841348</v>
+        <v>0.04934413198635039</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -6117,19 +6117,19 @@
         <v>35223</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24322</v>
+        <v>24896</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47209</v>
+        <v>47403</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03377379552977194</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02332086026536085</v>
+        <v>0.02387133699430926</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04526694358542633</v>
+        <v>0.04545219143293037</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>63</v>
@@ -6138,19 +6138,19 @@
         <v>70689</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>55487</v>
+        <v>54231</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>90395</v>
+        <v>88880</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03424245552881337</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02687817752714514</v>
+        <v>0.02626979492204054</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04378812006921202</v>
+        <v>0.04305405590340512</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>61211</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46628</v>
+        <v>47287</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78928</v>
+        <v>81156</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05992473071481784</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04564864754538799</v>
+        <v>0.04629316952786457</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07726920396310816</v>
+        <v>0.07945050892568188</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -6188,19 +6188,19 @@
         <v>58648</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46214</v>
+        <v>44185</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77248</v>
+        <v>73526</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05623487593556943</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04431243511992653</v>
+        <v>0.04236648510970147</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07406992231552623</v>
+        <v>0.07050064289930147</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>110</v>
@@ -6209,19 +6209,19 @@
         <v>119859</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>99922</v>
+        <v>100783</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>144758</v>
+        <v>143838</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05806063229833314</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04840298610701783</v>
+        <v>0.04882019328396377</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07012212452899627</v>
+        <v>0.06967611156888462</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>873077</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>849911</v>
+        <v>847928</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>896948</v>
+        <v>894713</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8547330975506874</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8320535852023327</v>
+        <v>0.8301118903225824</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8781020078843171</v>
+        <v>0.8759138095979525</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>853</v>
@@ -6259,19 +6259,19 @@
         <v>913055</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>889680</v>
+        <v>890195</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>934559</v>
+        <v>933366</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.875484827235401</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8530722731233517</v>
+        <v>0.8535656322778977</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8961040910246393</v>
+        <v>0.8949602387062394</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1669</v>
@@ -6280,19 +6280,19 @@
         <v>1786132</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1748444</v>
+        <v>1754658</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1819237</v>
+        <v>1817941</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8652167801774796</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.846960679086237</v>
+        <v>0.8499706108647894</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8812534018366821</v>
+        <v>0.8806255460165541</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>22168</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14421</v>
+        <v>14486</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32558</v>
+        <v>33871</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02926775221344597</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01903984285300076</v>
+        <v>0.01912592107415593</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04298634381937521</v>
+        <v>0.04471915022215136</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -6405,19 +6405,19 @@
         <v>16184</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10053</v>
+        <v>9895</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26853</v>
+        <v>26584</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02061585331395638</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01280562300727145</v>
+        <v>0.01260534640703385</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03420770442859682</v>
+        <v>0.03386429076918927</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -6426,19 +6426,19 @@
         <v>38351</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27674</v>
+        <v>27682</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51812</v>
+        <v>51675</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0248643890200317</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01794201530223423</v>
+        <v>0.01794727252858564</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03359107477188442</v>
+        <v>0.03350258219989315</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>12107</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6436</v>
+        <v>6597</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20473</v>
+        <v>21073</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01598441532609744</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008497478661734963</v>
+        <v>0.00870978562607184</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02702996398530481</v>
+        <v>0.02782206666863934</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -6476,19 +6476,19 @@
         <v>5816</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1972</v>
+        <v>2828</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11659</v>
+        <v>11663</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.007408416870679162</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002511911677200204</v>
+        <v>0.003602201603544068</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01485238239769254</v>
+        <v>0.01485723421911587</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -6497,19 +6497,19 @@
         <v>17922</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11126</v>
+        <v>10652</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28254</v>
+        <v>28511</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01161968148164691</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007213074882890037</v>
+        <v>0.006906103541963225</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01831767342084738</v>
+        <v>0.01848432403395263</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>51754</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38613</v>
+        <v>40021</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>66372</v>
+        <v>69108</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06833024941668979</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05098003455556134</v>
+        <v>0.05283876109142674</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08763056511906839</v>
+        <v>0.09124247261693043</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -6547,19 +6547,19 @@
         <v>29951</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21205</v>
+        <v>20187</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42357</v>
+        <v>42202</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03815418326772914</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0270122995512277</v>
+        <v>0.02571536388357112</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05395722035545606</v>
+        <v>0.05375997753392263</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>77</v>
@@ -6568,19 +6568,19 @@
         <v>81705</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>65057</v>
+        <v>65198</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>101859</v>
+        <v>99330</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05297221292712719</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04217822681963292</v>
+        <v>0.04226996126881068</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06603837496987987</v>
+        <v>0.06439907250470712</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>86723</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>69953</v>
+        <v>65569</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107298</v>
+        <v>104549</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1144994749728953</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09235791441982222</v>
+        <v>0.0865700519632918</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1416642426235833</v>
+        <v>0.1380345341774839</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>72</v>
@@ -6618,19 +6618,19 @@
         <v>75685</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61287</v>
+        <v>59195</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>93727</v>
+        <v>93766</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09641245960197477</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07807132212215009</v>
+        <v>0.07540720886236477</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1193956277906216</v>
+        <v>0.1194456945278842</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>148</v>
@@ -6639,19 +6639,19 @@
         <v>162408</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>138409</v>
+        <v>140199</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>189075</v>
+        <v>190427</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1052941318813656</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08973467879476536</v>
+        <v>0.09089567780032091</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1225834927154299</v>
+        <v>0.1234599870133089</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>584658</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>560536</v>
+        <v>560664</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>607790</v>
+        <v>610455</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7719181080708716</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7400702422648082</v>
+        <v>0.7402388282668799</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8024588248023897</v>
+        <v>0.8059782858553045</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>614</v>
@@ -6689,19 +6689,19 @@
         <v>657375</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>634893</v>
+        <v>636881</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>676138</v>
+        <v>676923</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8374090869456605</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.808769423315418</v>
+        <v>0.8113016914507316</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8613106699111872</v>
+        <v>0.8623097530516169</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1151</v>
@@ -6710,19 +6710,19 @@
         <v>1242033</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1208776</v>
+        <v>1210512</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1273222</v>
+        <v>1272087</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8052495846898285</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.783688006364435</v>
+        <v>0.7848133933496456</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8254700406970574</v>
+        <v>0.8247347734546426</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>25608</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17187</v>
+        <v>16972</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38290</v>
+        <v>37279</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02739818315568612</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01838807649579827</v>
+        <v>0.01815869034349267</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04096622564545338</v>
+        <v>0.03988446279838453</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -6835,19 +6835,19 @@
         <v>31359</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20096</v>
+        <v>20982</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44771</v>
+        <v>44924</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03007542051933059</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0192739490094791</v>
+        <v>0.0201229600829329</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04293909135937089</v>
+        <v>0.04308571642329857</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -6856,19 +6856,19 @@
         <v>56967</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42431</v>
+        <v>43186</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>73637</v>
+        <v>73048</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02880991367761186</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02145888613294426</v>
+        <v>0.02184042747639893</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03724048227215389</v>
+        <v>0.03694260223944765</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>6468</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13679</v>
+        <v>13151</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006920377661304665</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003015039957643648</v>
+        <v>0.003012315463180237</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01463555531704946</v>
+        <v>0.01407040358849668</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -6906,19 +6906,19 @@
         <v>6087</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2781</v>
+        <v>2066</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12374</v>
+        <v>12317</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.00583806701195789</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002666980909991336</v>
+        <v>0.001981593267475678</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01186731131510483</v>
+        <v>0.0118129882483116</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>12</v>
@@ -6927,19 +6927,19 @@
         <v>12555</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6828</v>
+        <v>6950</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21253</v>
+        <v>21709</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006349665852693056</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003452897600940016</v>
+        <v>0.003514576474601016</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01074853352878209</v>
+        <v>0.01097907090498417</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>25114</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16394</v>
+        <v>16139</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36786</v>
+        <v>36823</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02686981301903228</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01753950541985691</v>
+        <v>0.01726732463385263</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0393576098381769</v>
+        <v>0.03939638256591792</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>19</v>
@@ -6977,19 +6977,19 @@
         <v>20138</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13013</v>
+        <v>12432</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>30726</v>
+        <v>30765</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01931371582930373</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01248041986911513</v>
+        <v>0.01192304643192031</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02946873523947781</v>
+        <v>0.02950652125125645</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>43</v>
@@ -6998,19 +6998,19 @@
         <v>45252</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>33348</v>
+        <v>32994</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>61482</v>
+        <v>59565</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02288541732284488</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01686496453946783</v>
+        <v>0.01668605261781398</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03109311474577192</v>
+        <v>0.03012396314261941</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>56966</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44393</v>
+        <v>43616</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>72491</v>
+        <v>73629</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06094750563939637</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04749637318715362</v>
+        <v>0.0466642264424306</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07755836752550146</v>
+        <v>0.07877544261745853</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -7048,19 +7048,19 @@
         <v>60528</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46716</v>
+        <v>46617</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>78173</v>
+        <v>79117</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05805083823540954</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04480426748852051</v>
+        <v>0.04470946702711148</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07497416197804602</v>
+        <v>0.07587963949884675</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>112</v>
@@ -7069,19 +7069,19 @@
         <v>117493</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>98081</v>
+        <v>96792</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>139081</v>
+        <v>138581</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05942006775077042</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04960280816899616</v>
+        <v>0.04895091130904827</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0703377509911477</v>
+        <v>0.07008454597750816</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>820513</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>798873</v>
+        <v>798719</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>839574</v>
+        <v>840493</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8778641205245805</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8547112162529191</v>
+        <v>0.8545463217569589</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8982566547097358</v>
+        <v>0.8992401779350672</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>850</v>
@@ -7119,19 +7119,19 @@
         <v>924556</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>900781</v>
+        <v>899594</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>942839</v>
+        <v>944109</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8867219584039983</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8639199527063521</v>
+        <v>0.8627813578793374</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9042574929059705</v>
+        <v>0.9054753009181624</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1668</v>
@@ -7140,19 +7140,19 @@
         <v>1745069</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1715779</v>
+        <v>1715341</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1772082</v>
+        <v>1772293</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8825349353960797</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8677223014881578</v>
+        <v>0.8675006280116683</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8961961155168685</v>
+        <v>0.8963031608134221</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>110053</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>90291</v>
+        <v>89192</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>133770</v>
+        <v>133313</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03248833825287191</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02665464168153381</v>
+        <v>0.02633011074788288</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03948991823218587</v>
+        <v>0.03935490252072444</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>87</v>
@@ -7265,19 +7265,19 @@
         <v>90839</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>74015</v>
+        <v>73899</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>112016</v>
+        <v>110368</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02564924990556169</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02089900114537836</v>
+        <v>0.02086605396682482</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03162897123809535</v>
+        <v>0.03116340645231203</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>189</v>
@@ -7286,19 +7286,19 @@
         <v>200891</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>173516</v>
+        <v>173322</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>234230</v>
+        <v>231386</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02899273110091471</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0250419533041496</v>
+        <v>0.02501393465695115</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0338042148253334</v>
+        <v>0.03339377226862333</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>38627</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>27667</v>
+        <v>27748</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>51359</v>
+        <v>53569</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01140306966529274</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008167505534939248</v>
+        <v>0.008191482228703317</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01516141371622968</v>
+        <v>0.01581393794323089</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -7336,19 +7336,19 @@
         <v>23204</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14566</v>
+        <v>15247</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>35683</v>
+        <v>33004</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.006551831169155483</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004112967892690922</v>
+        <v>0.004305264364639351</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01007552742731111</v>
+        <v>0.009319154665928045</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>61</v>
@@ -7357,19 +7357,19 @@
         <v>61831</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>46852</v>
+        <v>47583</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>77620</v>
+        <v>78585</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008923495909001529</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006761639700426453</v>
+        <v>0.006867232722701766</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0112021017492129</v>
+        <v>0.01134149727799983</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>130703</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>111068</v>
+        <v>107976</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>156753</v>
+        <v>154964</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03858445261595029</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03278810380485193</v>
+        <v>0.03187520459623056</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04627457683415064</v>
+        <v>0.04574645497490486</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>92</v>
@@ -7407,19 +7407,19 @@
         <v>96490</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>78424</v>
+        <v>78316</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>115620</v>
+        <v>118994</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02724481332676866</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02214381178987882</v>
+        <v>0.02211319258450647</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03264648544238168</v>
+        <v>0.03359910275290829</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>212</v>
@@ -7428,19 +7428,19 @@
         <v>227192</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>198955</v>
+        <v>197612</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>262809</v>
+        <v>260164</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03278851576195894</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02871331718213265</v>
+        <v>0.0285194884792426</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0379287307875496</v>
+        <v>0.03754704542688762</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>227818</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>196612</v>
+        <v>197557</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>260904</v>
+        <v>257847</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06725353264112953</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05804134343472665</v>
+        <v>0.05832016707859436</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07702074189151406</v>
+        <v>0.07611849429330524</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>207</v>
@@ -7478,19 +7478,19 @@
         <v>220229</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>188870</v>
+        <v>189848</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>251140</v>
+        <v>249786</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06218396343082389</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05332945383307627</v>
+        <v>0.05360548748048489</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07091190876958731</v>
+        <v>0.07052953154874014</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>416</v>
@@ -7499,19 +7499,19 @@
         <v>448047</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>407189</v>
+        <v>407389</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>496230</v>
+        <v>492757</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06466236529704103</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05876570368668934</v>
+        <v>0.05879456646780222</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07161611421578093</v>
+        <v>0.07111497659798389</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>2880247</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2834582</v>
+        <v>2839623</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2922224</v>
+        <v>2923647</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8502706068247555</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8367898031377811</v>
+        <v>0.838277814220681</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8626624874865712</v>
+        <v>0.8630823564770627</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2925</v>
@@ -7549,19 +7549,19 @@
         <v>3110814</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3070589</v>
+        <v>3068904</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3148296</v>
+        <v>3150510</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8783701421676903</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8670122706532318</v>
+        <v>0.8665366167685685</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.888953551734446</v>
+        <v>0.8895787380504826</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5681</v>
@@ -7570,19 +7570,19 @@
         <v>5991061</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5928861</v>
+        <v>5924301</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6047499</v>
+        <v>6043845</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8646328919310838</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8556561263071644</v>
+        <v>0.854998000161397</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.872777982750207</v>
+        <v>0.8722506881542569</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>35112</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23386</v>
+        <v>23517</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51134</v>
+        <v>52482</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05083492601040501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03385789735803309</v>
+        <v>0.03404812927007993</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07403176796765511</v>
+        <v>0.07598223576384767</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -7935,19 +7935,19 @@
         <v>33030</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24250</v>
+        <v>23471</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46784</v>
+        <v>44976</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0450784649664094</v>
+        <v>0.04507846496640939</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03309548821157216</v>
+        <v>0.03203255435674462</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06384978867534388</v>
+        <v>0.06138176679662717</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -7956,19 +7956,19 @@
         <v>68142</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53062</v>
+        <v>52114</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89378</v>
+        <v>87370</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04787174517941922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03727720495108167</v>
+        <v>0.03661161683979159</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06279027324708891</v>
+        <v>0.06137973826423706</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>21672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14544</v>
+        <v>14313</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32362</v>
+        <v>33270</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03137683958286094</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02105604065740513</v>
+        <v>0.02072255208788817</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04685352020199726</v>
+        <v>0.04816759890016175</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -8006,19 +8006,19 @@
         <v>12660</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7783</v>
+        <v>7930</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19953</v>
+        <v>18692</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01727758060428821</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01062202253939424</v>
+        <v>0.01082333602355518</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02723137417328131</v>
+        <v>0.02551024217079037</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -8027,19 +8027,19 @@
         <v>34332</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24754</v>
+        <v>24954</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46223</v>
+        <v>45767</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.02411914190765667</v>
+        <v>0.02411914190765666</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01739022223430145</v>
+        <v>0.01753098200556484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03247262818949585</v>
+        <v>0.03215278173363171</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>24879</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16184</v>
+        <v>15960</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38422</v>
+        <v>40579</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03601953870868169</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02343131357203395</v>
+        <v>0.02310732438942384</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05562732462542141</v>
+        <v>0.05874967524368067</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -8077,19 +8077,19 @@
         <v>24649</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17110</v>
+        <v>17308</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34445</v>
+        <v>34811</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03363970865410109</v>
+        <v>0.03363970865410108</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02335067183580799</v>
+        <v>0.02362209637323018</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04701003377362101</v>
+        <v>0.04750900090706237</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>64</v>
@@ -8098,19 +8098,19 @@
         <v>49528</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37224</v>
+        <v>37385</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65910</v>
+        <v>65867</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.03479450361423026</v>
+        <v>0.03479450361423027</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02615091583003322</v>
+        <v>0.02626398165620538</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04630340668021548</v>
+        <v>0.04627372921829296</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>82676</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68564</v>
+        <v>66197</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102516</v>
+        <v>100280</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1196970977194252</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09926614639893977</v>
+        <v>0.09583933378714232</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.14842151655498</v>
+        <v>0.1451841402259316</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>146</v>
@@ -8148,19 +8148,19 @@
         <v>96029</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82654</v>
+        <v>82074</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111503</v>
+        <v>113345</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1310573196868472</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1128036598263237</v>
+        <v>0.112012552402672</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1521766068082439</v>
+        <v>0.1546908706091327</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>229</v>
@@ -8169,19 +8169,19 @@
         <v>178704</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>157946</v>
+        <v>158142</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>203634</v>
+        <v>203809</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1255448558667197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1109614250666299</v>
+        <v>0.1110994161756467</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.143058667968399</v>
+        <v>0.1431817035958398</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>526370</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>500916</v>
+        <v>499516</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>548482</v>
+        <v>549625</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7620715979786271</v>
+        <v>0.7620715979786272</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.725219170653441</v>
+        <v>0.7231914997981156</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7940844841006117</v>
+        <v>0.7957385757682</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>986</v>
@@ -8219,19 +8219,19 @@
         <v>566355</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>544845</v>
+        <v>546792</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>582866</v>
+        <v>585298</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7729469260883542</v>
+        <v>0.7729469260883541</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7435897980994155</v>
+        <v>0.7462470994658391</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7954806213174894</v>
+        <v>0.7987992423933155</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1553</v>
@@ -8240,19 +8240,19 @@
         <v>1092725</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1058846</v>
+        <v>1062266</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1121263</v>
+        <v>1124561</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7676697534319741</v>
+        <v>0.7676697534319743</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7438690091441436</v>
+        <v>0.7462713680577528</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7877183945555295</v>
+        <v>0.7900353900989511</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>38813</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25990</v>
+        <v>27266</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53028</v>
+        <v>55323</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03700325788761445</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02477827833289831</v>
+        <v>0.02599454511349899</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05055475426372031</v>
+        <v>0.05274267023908357</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -8365,19 +8365,19 @@
         <v>38688</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28275</v>
+        <v>28245</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51696</v>
+        <v>52076</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03612890273497199</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02640501691421123</v>
+        <v>0.02637648697124465</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04827607906377649</v>
+        <v>0.04863086008937145</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -8386,19 +8386,19 @@
         <v>77502</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62057</v>
+        <v>60420</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99250</v>
+        <v>99642</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03656155935490615</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02927577371544521</v>
+        <v>0.02850307790427839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04682133977384099</v>
+        <v>0.04700620680181018</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>22696</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14179</v>
+        <v>13427</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35102</v>
+        <v>36271</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02163715170340216</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01351781175336665</v>
+        <v>0.01280050540854699</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0334654164264488</v>
+        <v>0.03457905405080063</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -8436,19 +8436,19 @@
         <v>21652</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14868</v>
+        <v>14978</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30886</v>
+        <v>31990</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0202194868371814</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01388414471772027</v>
+        <v>0.01398764118781586</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02884285382585051</v>
+        <v>0.02987404183321818</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>49</v>
@@ -8457,19 +8457,19 @@
         <v>44347</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32041</v>
+        <v>32676</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>58295</v>
+        <v>59384</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02092098906698446</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01511564529100025</v>
+        <v>0.01541493859629685</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02750061219161065</v>
+        <v>0.02801463161829605</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>44013</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31744</v>
+        <v>30609</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60941</v>
+        <v>61941</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04196047890818184</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03026364772033772</v>
+        <v>0.02918106709448321</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0580989054587808</v>
+        <v>0.05905255162014426</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>46</v>
@@ -8507,19 +8507,19 @@
         <v>33878</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25991</v>
+        <v>25255</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47389</v>
+        <v>45530</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03163683445193997</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02427171966090518</v>
+        <v>0.02358434261485562</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04425375835833569</v>
+        <v>0.0425185346898026</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>85</v>
@@ -8528,19 +8528,19 @@
         <v>77891</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>62865</v>
+        <v>63482</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>97856</v>
+        <v>100161</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03674527705943274</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02965687675868344</v>
+        <v>0.02994760438072464</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04616387803776859</v>
+        <v>0.0472511587300726</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>180025</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>155573</v>
+        <v>153341</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>211962</v>
+        <v>211660</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1716295873152713</v>
+        <v>0.1716295873152714</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1483180113202882</v>
+        <v>0.14618940398821</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2020773143165598</v>
+        <v>0.2017890072478627</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>243</v>
@@ -8578,19 +8578,19 @@
         <v>174696</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>153710</v>
+        <v>154855</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>197400</v>
+        <v>196253</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1631393659112042</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1435415414914399</v>
+        <v>0.144611084154291</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1843418765496305</v>
+        <v>0.1832704632786769</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>401</v>
@@ -8599,19 +8599,19 @@
         <v>354721</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>319670</v>
+        <v>318651</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>393149</v>
+        <v>396623</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1673405769226276</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1508049692699266</v>
+        <v>0.1503246407560048</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1854690380021818</v>
+        <v>0.1871078927904972</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>763370</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>730825</v>
+        <v>730217</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>794093</v>
+        <v>795832</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7277695241855302</v>
+        <v>0.7277695241855301</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6967426685975635</v>
+        <v>0.6961627130198413</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7570601724423595</v>
+        <v>0.7587181120285577</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1149</v>
@@ -8649,19 +8649,19 @@
         <v>801924</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>776504</v>
+        <v>773029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>827051</v>
+        <v>824950</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7488754100647024</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7251367938308529</v>
+        <v>0.7218919993003571</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.772340055601112</v>
+        <v>0.7703781538746292</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1865</v>
@@ -8670,19 +8670,19 @@
         <v>1565294</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1522488</v>
+        <v>1524036</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1607811</v>
+        <v>1607764</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7384315975960489</v>
+        <v>0.738431597596049</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7182378734292054</v>
+        <v>0.7189680969549496</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7584889248698904</v>
+        <v>0.7584667194374108</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>63901</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47461</v>
+        <v>47067</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85190</v>
+        <v>84204</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07957016161460524</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05909934583883996</v>
+        <v>0.05860857885061165</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1060801618169791</v>
+        <v>0.1048516224410974</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>62</v>
@@ -8795,19 +8795,19 @@
         <v>46597</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36047</v>
+        <v>35663</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60025</v>
+        <v>58530</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05736729080027642</v>
+        <v>0.05736729080027641</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0443789859468587</v>
+        <v>0.04390653135459908</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07389872130856695</v>
+        <v>0.07205825636192201</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>111</v>
@@ -8816,19 +8816,19 @@
         <v>110498</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90326</v>
+        <v>89907</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>134709</v>
+        <v>133857</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06840559714769011</v>
+        <v>0.06840559714769009</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05591794861986561</v>
+        <v>0.05565824456760796</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08339369792571438</v>
+        <v>0.08286650377432242</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>27510</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17733</v>
+        <v>17900</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39121</v>
+        <v>39793</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0342560038344677</v>
+        <v>0.03425600383446769</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02208167471169842</v>
+        <v>0.0222894703374295</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04871414123535571</v>
+        <v>0.04955145347279446</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -8866,19 +8866,19 @@
         <v>24484</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16662</v>
+        <v>16496</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35263</v>
+        <v>35358</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03014264454627061</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0205131331340893</v>
+        <v>0.02030861351658541</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04341327885808218</v>
+        <v>0.04353100294604162</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -8887,19 +8887,19 @@
         <v>51994</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39145</v>
+        <v>40108</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67727</v>
+        <v>67256</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03218762874312486</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02423369184281832</v>
+        <v>0.02482939118633499</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04192790826415235</v>
+        <v>0.04163603216894039</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>58250</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>43022</v>
+        <v>43217</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>74907</v>
+        <v>73156</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07253335507659142</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05357151229805183</v>
+        <v>0.05381440313183324</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09327578870741174</v>
+        <v>0.09109563722224721</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>61</v>
@@ -8937,19 +8937,19 @@
         <v>49360</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>37981</v>
+        <v>38090</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>64894</v>
+        <v>63258</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.06076837146624463</v>
+        <v>0.06076837146624461</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04675930489205141</v>
+        <v>0.04689406463285864</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0798929562809787</v>
+        <v>0.07787916479058155</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>112</v>
@@ -8958,19 +8958,19 @@
         <v>107609</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>89671</v>
+        <v>86730</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>130026</v>
+        <v>127481</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.06661741208578015</v>
+        <v>0.06661741208578016</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05551273224528613</v>
+        <v>0.05369157921027673</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08049510509021555</v>
+        <v>0.07891915546396211</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>184281</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>158024</v>
+        <v>157121</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>213029</v>
+        <v>213995</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2294702655076905</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.196774330308623</v>
+        <v>0.1956495714541893</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2652668885640971</v>
+        <v>0.2664703187070114</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>214</v>
@@ -9008,19 +9008,19 @@
         <v>168412</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>148246</v>
+        <v>147871</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>193010</v>
+        <v>192247</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2073377659450689</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1825104612429793</v>
+        <v>0.1820486505742844</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2376207908521255</v>
+        <v>0.2366820547834336</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>362</v>
@@ -9029,19 +9029,19 @@
         <v>352693</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>316834</v>
+        <v>318081</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>390879</v>
+        <v>392026</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2183410867520589</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1961414701347635</v>
+        <v>0.1969137465122392</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2419806506645906</v>
+        <v>0.2426904787811619</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>469131</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>439084</v>
+        <v>435621</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>502492</v>
+        <v>501932</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5841702139666451</v>
+        <v>0.584170213966645</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5467545002172701</v>
+        <v>0.5424420984514636</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6257109818525073</v>
+        <v>0.6250139651425434</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>680</v>
@@ -9079,19 +9079,19 @@
         <v>523407</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>494490</v>
+        <v>496759</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>546676</v>
+        <v>548765</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6443839272421394</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6087838206643258</v>
+        <v>0.6115769378089516</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6730314277892551</v>
+        <v>0.675603264590717</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1084</v>
@@ -9100,19 +9100,19 @@
         <v>992538</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>948177</v>
+        <v>950063</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1030859</v>
+        <v>1032994</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6144482752713459</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5869861090868785</v>
+        <v>0.5881530970204005</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6381714815883774</v>
+        <v>0.6394930900704975</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>45469</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32318</v>
+        <v>30653</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64701</v>
+        <v>63803</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04592581687141366</v>
+        <v>0.04592581687141365</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03264218072657833</v>
+        <v>0.03096109642383704</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06535074683085047</v>
+        <v>0.06444305245343385</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>80</v>
@@ -9225,19 +9225,19 @@
         <v>54877</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42931</v>
+        <v>43854</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>68929</v>
+        <v>69161</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04903956628770209</v>
+        <v>0.04903956628770208</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03836384141190187</v>
+        <v>0.03918889914939371</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06159664132746832</v>
+        <v>0.06180396818034991</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>120</v>
@@ -9246,19 +9246,19 @@
         <v>100347</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>82342</v>
+        <v>82391</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>122557</v>
+        <v>123397</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04757789998450671</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03904136074107665</v>
+        <v>0.03906467770858716</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05810878014189881</v>
+        <v>0.05850678752231467</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>20591</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13253</v>
+        <v>12593</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>32044</v>
+        <v>31537</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02079806048073747</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01338588083710356</v>
+        <v>0.01271978571434669</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03236572536380152</v>
+        <v>0.03185308056674164</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -9296,19 +9296,19 @@
         <v>21876</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14522</v>
+        <v>14819</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>31225</v>
+        <v>30879</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01954874528330972</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0129772320561013</v>
+        <v>0.01324255158412708</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02790331109065965</v>
+        <v>0.02759401976001142</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>51</v>
@@ -9317,19 +9317,19 @@
         <v>42467</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>31802</v>
+        <v>31581</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>54548</v>
+        <v>55552</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02013520285648422</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01507839204326495</v>
+        <v>0.01497346421377251</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02586290015756821</v>
+        <v>0.02633925611262987</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>50320</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36392</v>
+        <v>37309</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>68650</v>
+        <v>68770</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.05082460756952081</v>
+        <v>0.0508246075695208</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03675729064916806</v>
+        <v>0.03768316141858381</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06933959230456174</v>
+        <v>0.06946034047871277</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>70</v>
@@ -9367,19 +9367,19 @@
         <v>50427</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39707</v>
+        <v>40408</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>63475</v>
+        <v>64573</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04506309573808422</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0354831978995121</v>
+        <v>0.03610989834655833</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05672254298125403</v>
+        <v>0.05770429123639074</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>115</v>
@@ -9388,19 +9388,19 @@
         <v>100747</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>82338</v>
+        <v>82454</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>122884</v>
+        <v>122218</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.0477676832220413</v>
+        <v>0.04776768322204129</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03903913669766021</v>
+        <v>0.03909423196985177</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05826356057818907</v>
+        <v>0.05794805764291966</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>147353</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>125137</v>
+        <v>123169</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>173976</v>
+        <v>172199</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1488325022970667</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1263929883817064</v>
+        <v>0.1244049703970654</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1757219917203096</v>
+        <v>0.1739274624897335</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>224</v>
@@ -9438,19 +9438,19 @@
         <v>165610</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>147086</v>
+        <v>144855</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>188332</v>
+        <v>187105</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1479928602187719</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.131438983938691</v>
+        <v>0.1294457038093096</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1682978977231728</v>
+        <v>0.1672011142089763</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>367</v>
@@ -9459,19 +9459,19 @@
         <v>312964</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>282603</v>
+        <v>280848</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>346513</v>
+        <v>346316</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1483870077138042</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1339918764388603</v>
+        <v>0.1331599204485244</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1642940667378095</v>
+        <v>0.1642004113465017</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>726328</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>692088</v>
+        <v>694636</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>755583</v>
+        <v>755134</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7336190127812613</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6990351381903185</v>
+        <v>0.7016082498310218</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7631672302674334</v>
+        <v>0.7627140907865334</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1158</v>
@@ -9509,19 +9509,19 @@
         <v>826250</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>798525</v>
+        <v>802773</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>850509</v>
+        <v>851841</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7383557324721323</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7135798383830996</v>
+        <v>0.7173756231719359</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7600340914988786</v>
+        <v>0.7612240057447758</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1915</v>
@@ -9530,19 +9530,19 @@
         <v>1552579</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1514054</v>
+        <v>1512507</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1595484</v>
+        <v>1593874</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7361322062231636</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7178661707470653</v>
+        <v>0.7171325436258857</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7564747811946311</v>
+        <v>0.7557115325584993</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>183296</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>150560</v>
+        <v>153930</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>216117</v>
+        <v>219515</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05188449958611088</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04261828777695616</v>
+        <v>0.04357213522373373</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06117495425140831</v>
+        <v>0.06213697280155525</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>236</v>
@@ -9655,19 +9655,19 @@
         <v>173193</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>149472</v>
+        <v>151865</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>197159</v>
+        <v>196651</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.04637190305519188</v>
+        <v>0.04637190305519189</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04002065828763825</v>
+        <v>0.04066149293697607</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05278877803000638</v>
+        <v>0.05265272437725722</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>388</v>
@@ -9676,19 +9676,19 @@
         <v>356488</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>319424</v>
+        <v>318138</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>398058</v>
+        <v>398919</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.04905155419265616</v>
+        <v>0.04905155419265617</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04395166156811348</v>
+        <v>0.04377466567678206</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05477146748741962</v>
+        <v>0.05488987930611781</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>92469</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>74819</v>
+        <v>72612</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>113755</v>
+        <v>112990</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02617479178868155</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02117858072196574</v>
+        <v>0.02055401065680019</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03219989121194306</v>
+        <v>0.0319834142385491</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>110</v>
@@ -9726,19 +9726,19 @@
         <v>80671</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>67494</v>
+        <v>66667</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>98714</v>
+        <v>98304</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02159945407306132</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01807144655571121</v>
+        <v>0.01784983248570367</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02643032379716677</v>
+        <v>0.02632059844004496</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>199</v>
@@ -9747,19 +9747,19 @@
         <v>173140</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>150916</v>
+        <v>147092</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>201939</v>
+        <v>197147</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02382350744703481</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02076554486671155</v>
+        <v>0.02023930372006046</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02778615291514244</v>
+        <v>0.02712677666558688</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>177461</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>151229</v>
+        <v>150721</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>208785</v>
+        <v>209509</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05023299370347346</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04280751346097</v>
+        <v>0.04266389284561298</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05909953187108583</v>
+        <v>0.05930446019439394</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>217</v>
@@ -9797,19 +9797,19 @@
         <v>158314</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>137596</v>
+        <v>138825</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>179366</v>
+        <v>182183</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04238809048921856</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03684087750171892</v>
+        <v>0.03717016391726336</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04802473173773288</v>
+        <v>0.04877903107460946</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>376</v>
@@ -9818,19 +9818,19 @@
         <v>335775</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>300519</v>
+        <v>302019</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>372244</v>
+        <v>374213</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.04620146658222111</v>
+        <v>0.04620146658222112</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04135038623061298</v>
+        <v>0.04155681224831144</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05121956088811978</v>
+        <v>0.05149038902812127</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>594336</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>539864</v>
+        <v>541637</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>641402</v>
+        <v>645265</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1682354962114427</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1528163465271778</v>
+        <v>0.1533182443193063</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1815581694391724</v>
+        <v>0.1826516601553431</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>827</v>
@@ -9868,19 +9868,19 @@
         <v>604746</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>562484</v>
+        <v>564378</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>643378</v>
+        <v>645036</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1619194408408575</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1506038968712574</v>
+        <v>0.1511108337148775</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1722630725701672</v>
+        <v>0.1727070072467448</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1359</v>
@@ -9889,19 +9889,19 @@
         <v>1199082</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1130583</v>
+        <v>1136503</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1256628</v>
+        <v>1264843</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1649896501085135</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1555643045782537</v>
+        <v>0.1563789685292776</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1729077913136275</v>
+        <v>0.1740381341763804</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>2485200</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2424081</v>
+        <v>2424007</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2539041</v>
+        <v>2549870</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7034722187102915</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6861715551212672</v>
+        <v>0.6861506043096608</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7187128407281619</v>
+        <v>0.7217780373410583</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3973</v>
@@ -9939,19 +9939,19 @@
         <v>2717936</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2671985</v>
+        <v>2668761</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2766262</v>
+        <v>2764397</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7277211115416706</v>
+        <v>0.7277211115416709</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7154176627114022</v>
+        <v>0.7145544897202369</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7406601604376967</v>
+        <v>0.740160871004616</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6417</v>
@@ -9960,19 +9960,19 @@
         <v>5203136</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5125208</v>
+        <v>5130376</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5293595</v>
+        <v>5286421</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7159338216695744</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7052111140419657</v>
+        <v>0.7059222510477051</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.728380623562819</v>
+        <v>0.7273934862124913</v>
       </c>
     </row>
     <row r="33">
